--- a/Project/Datasets/Sehirler.xlsx
+++ b/Project/Datasets/Sehirler.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
   <si>
     <t>Id</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Distribution Center</t>
+  </si>
+  <si>
+    <t>Affected</t>
   </si>
 </sst>
 </file>
@@ -613,7 +619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -621,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,660 +642,1152 @@
     <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>92</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Datasets/Sehirler.xlsx
+++ b/Project/Datasets/Sehirler.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="95">
   <si>
     <t>Id</t>
   </si>
@@ -303,9 +303,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Distribution Center</t>
   </si>
   <si>
     <t>Affected</t>
@@ -619,7 +616,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -627,22 +624,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,11 +648,8 @@
       <c r="C1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -664,13 +657,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -678,13 +668,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -694,11 +681,8 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -708,11 +692,8 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -722,11 +703,8 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -734,13 +712,10 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -748,13 +723,10 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -764,11 +736,8 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -778,11 +747,8 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -792,11 +758,8 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -806,11 +769,8 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -820,11 +780,8 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -834,11 +791,8 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -848,11 +802,8 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -862,11 +813,8 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -874,13 +822,10 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -890,11 +835,8 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -904,11 +846,8 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -918,11 +857,8 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -932,11 +868,8 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -944,13 +877,10 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -960,11 +890,8 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -972,13 +899,10 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -988,11 +912,8 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1002,11 +923,8 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1014,13 +932,10 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1028,13 +943,10 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1042,13 +954,10 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1058,11 +967,8 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1072,11 +978,8 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1084,13 +987,10 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1100,11 +1000,8 @@
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1114,11 +1011,8 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1126,13 +1020,10 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1140,13 +1031,10 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1156,11 +1044,8 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1170,11 +1055,8 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1182,13 +1064,10 @@
         <v>49</v>
       </c>
       <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1198,11 +1077,8 @@
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1212,11 +1088,8 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1224,13 +1097,10 @@
         <v>52</v>
       </c>
       <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1238,13 +1108,10 @@
         <v>53</v>
       </c>
       <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1254,11 +1121,8 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1266,13 +1130,10 @@
         <v>55</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1282,11 +1143,8 @@
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1294,13 +1152,10 @@
         <v>57</v>
       </c>
       <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1310,11 +1165,8 @@
       <c r="C48">
         <v>0</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1324,11 +1176,8 @@
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1338,11 +1187,8 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1352,11 +1198,8 @@
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1366,11 +1209,8 @@
       <c r="C52">
         <v>0</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1380,11 +1220,8 @@
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1394,11 +1231,8 @@
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1408,11 +1242,8 @@
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1422,11 +1253,8 @@
       <c r="C56">
         <v>0</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1436,11 +1264,8 @@
       <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1450,11 +1275,8 @@
       <c r="C58">
         <v>0</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1464,11 +1286,8 @@
       <c r="C59">
         <v>0</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1478,11 +1297,8 @@
       <c r="C60">
         <v>0</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1492,11 +1308,8 @@
       <c r="C61">
         <v>0</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1506,11 +1319,8 @@
       <c r="C62">
         <v>0</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1520,11 +1330,8 @@
       <c r="C63">
         <v>0</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1532,13 +1339,10 @@
         <v>74</v>
       </c>
       <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1548,11 +1352,8 @@
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1562,11 +1363,8 @@
       <c r="C66">
         <v>0</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1576,11 +1374,8 @@
       <c r="C67">
         <v>0</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1590,11 +1385,8 @@
       <c r="C68">
         <v>0</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1604,11 +1396,8 @@
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1618,11 +1407,8 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1632,11 +1418,8 @@
       <c r="C71">
         <v>0</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1646,11 +1429,8 @@
       <c r="C72">
         <v>0</v>
       </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1660,11 +1440,8 @@
       <c r="C73">
         <v>0</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1674,11 +1451,8 @@
       <c r="C74">
         <v>0</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1688,11 +1462,8 @@
       <c r="C75">
         <v>0</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1702,11 +1473,8 @@
       <c r="C76">
         <v>0</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1716,11 +1484,8 @@
       <c r="C77">
         <v>0</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1730,11 +1495,8 @@
       <c r="C78">
         <v>0</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1744,11 +1506,8 @@
       <c r="C79">
         <v>0</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1756,13 +1515,10 @@
         <v>90</v>
       </c>
       <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1770,13 +1526,10 @@
         <v>91</v>
       </c>
       <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1784,9 +1537,6 @@
         <v>92</v>
       </c>
       <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
         <v>0</v>
       </c>
     </row>
